--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarit\git\myown\myown\Aug2nd2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wipro_Training\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF58EAB-0770-4B52-A298-E80FCE43E05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5E013-A5BC-47E3-A4F5-E5D69CC25266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -366,9 +369,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -384,7 +387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
